--- a/backend-app/public/imports/giaolong.xlsx
+++ b/backend-app/public/imports/giaolong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAM\Laradock\ttungbmt\PROJECT\HCMGIS_Caytrong\backend-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAM\Laradock\ttungbmt\PROJECT\HCMGIS_Caytrong\backend-app\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184FAA44-70BA-429B-A1A6-B38E37D5319F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC704052-EE76-459B-855D-CED77A3CC26A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NONG HO" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="147">
   <si>
     <t>stt</t>
   </si>
@@ -585,9 +585,6 @@
   </si>
   <si>
     <t xml:space="preserve">ẤP Hòa Hưng Thạnh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quanh năm </t>
   </si>
   <si>
     <t>Sinh học</t>
@@ -1111,9 +1108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,10 +1147,10 @@
         <v>57</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1164,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F2" s="15">
         <v>831</v>
@@ -1190,7 +1187,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F3" s="15">
         <v>831</v>
@@ -1210,7 +1207,7 @@
         <v>78</v>
       </c>
       <c r="E4" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F4" s="15">
         <v>831</v>
@@ -1230,7 +1227,7 @@
         <v>78</v>
       </c>
       <c r="E5" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F5" s="15">
         <v>831</v>
@@ -1250,7 +1247,7 @@
         <v>78</v>
       </c>
       <c r="E6" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F6" s="15">
         <v>831</v>
@@ -1270,7 +1267,7 @@
         <v>78</v>
       </c>
       <c r="E7" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F7" s="15">
         <v>831</v>
@@ -1290,7 +1287,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F8" s="15">
         <v>831</v>
@@ -1310,7 +1307,7 @@
         <v>78</v>
       </c>
       <c r="E9" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F9" s="15">
         <v>831</v>
@@ -1330,7 +1327,7 @@
         <v>78</v>
       </c>
       <c r="E10" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F10" s="15">
         <v>831</v>
@@ -1350,7 +1347,7 @@
         <v>78</v>
       </c>
       <c r="E11" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F11" s="15">
         <v>831</v>
@@ -1368,7 +1365,7 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F12" s="17">
         <v>831</v>
@@ -1388,7 +1385,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F13" s="15">
         <v>831</v>
@@ -1408,7 +1405,7 @@
         <v>91</v>
       </c>
       <c r="E14" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F14" s="15">
         <v>831</v>
@@ -1428,7 +1425,7 @@
         <v>78</v>
       </c>
       <c r="E15" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F15" s="15">
         <v>831</v>
@@ -1448,7 +1445,7 @@
         <v>78</v>
       </c>
       <c r="E16" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F16" s="15">
         <v>831</v>
@@ -1468,7 +1465,7 @@
         <v>78</v>
       </c>
       <c r="E17" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F17" s="15">
         <v>831</v>
@@ -1488,7 +1485,7 @@
         <v>78</v>
       </c>
       <c r="E18" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F18" s="15">
         <v>831</v>
@@ -1508,7 +1505,7 @@
         <v>78</v>
       </c>
       <c r="E19" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F19" s="15">
         <v>831</v>
@@ -1528,7 +1525,7 @@
         <v>78</v>
       </c>
       <c r="E20" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F20" s="15">
         <v>831</v>
@@ -1548,7 +1545,7 @@
         <v>78</v>
       </c>
       <c r="E21" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F21" s="15">
         <v>831</v>
@@ -1568,7 +1565,7 @@
         <v>78</v>
       </c>
       <c r="E22" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F22" s="15">
         <v>831</v>
@@ -1588,7 +1585,7 @@
         <v>78</v>
       </c>
       <c r="E23" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F23" s="15">
         <v>831</v>
@@ -1608,7 +1605,7 @@
         <v>78</v>
       </c>
       <c r="E24" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F24" s="15">
         <v>831</v>
@@ -1628,7 +1625,7 @@
         <v>75</v>
       </c>
       <c r="E25" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F25" s="15">
         <v>831</v>
@@ -1648,7 +1645,7 @@
         <v>75</v>
       </c>
       <c r="E26" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F26" s="15">
         <v>831</v>
@@ -1668,7 +1665,7 @@
         <v>75</v>
       </c>
       <c r="E27" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F27" s="15">
         <v>831</v>
@@ -1688,7 +1685,7 @@
         <v>106</v>
       </c>
       <c r="E28" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F28" s="15">
         <v>831</v>
@@ -1708,7 +1705,7 @@
         <v>106</v>
       </c>
       <c r="E29" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F29" s="15">
         <v>831</v>
@@ -1728,7 +1725,7 @@
         <v>106</v>
       </c>
       <c r="E30" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F30" s="15">
         <v>831</v>
@@ -1748,7 +1745,7 @@
         <v>106</v>
       </c>
       <c r="E31" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F31" s="15">
         <v>831</v>
@@ -1768,7 +1765,7 @@
         <v>106</v>
       </c>
       <c r="E32" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F32" s="15">
         <v>831</v>
@@ -1788,7 +1785,7 @@
         <v>106</v>
       </c>
       <c r="E33" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F33" s="15">
         <v>831</v>
@@ -1808,7 +1805,7 @@
         <v>113</v>
       </c>
       <c r="E34" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F34" s="17">
         <v>831</v>
@@ -1828,7 +1825,7 @@
         <v>113</v>
       </c>
       <c r="E35" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F35" s="17">
         <v>831</v>
@@ -1848,7 +1845,7 @@
         <v>113</v>
       </c>
       <c r="E36" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F36" s="17">
         <v>831</v>
@@ -1868,13 +1865,13 @@
         <v>113</v>
       </c>
       <c r="E37" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F37" s="17">
         <v>831</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1891,7 +1888,7 @@
         <v>113</v>
       </c>
       <c r="E38" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F38" s="17">
         <v>831</v>
@@ -1911,7 +1908,7 @@
         <v>113</v>
       </c>
       <c r="E39" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F39" s="17">
         <v>831</v>
@@ -1931,7 +1928,7 @@
         <v>113</v>
       </c>
       <c r="E40" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F40" s="17">
         <v>831</v>
@@ -1945,13 +1942,13 @@
         <v>40</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F41" s="17">
         <v>831</v>
@@ -1971,7 +1968,7 @@
         <v>113</v>
       </c>
       <c r="E42" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F42" s="17">
         <v>831</v>
@@ -1991,7 +1988,7 @@
         <v>113</v>
       </c>
       <c r="E43" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F43" s="17">
         <v>831</v>
@@ -2005,13 +2002,13 @@
         <v>43</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E44" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F44" s="17">
         <v>831</v>
@@ -2025,13 +2022,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E45" s="17">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F45" s="17">
         <v>831</v>
@@ -2051,7 +2048,7 @@
         <v>80</v>
       </c>
       <c r="E46" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F46" s="15">
         <v>831</v>
@@ -2071,7 +2068,7 @@
         <v>80</v>
       </c>
       <c r="E47" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F47" s="15">
         <v>831</v>
@@ -2091,7 +2088,7 @@
         <v>80</v>
       </c>
       <c r="E48" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F48" s="15">
         <v>831</v>
@@ -2111,7 +2108,7 @@
         <v>80</v>
       </c>
       <c r="E49" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F49" s="15">
         <v>831</v>
@@ -2131,7 +2128,7 @@
         <v>80</v>
       </c>
       <c r="E50" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F50" s="15">
         <v>831</v>
@@ -2151,7 +2148,7 @@
         <v>80</v>
       </c>
       <c r="E51" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F51" s="15">
         <v>831</v>
@@ -2171,7 +2168,7 @@
         <v>80</v>
       </c>
       <c r="E52" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F52" s="15">
         <v>831</v>
@@ -2191,7 +2188,7 @@
         <v>80</v>
       </c>
       <c r="E53" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F53" s="15">
         <v>831</v>
@@ -2211,7 +2208,7 @@
         <v>131</v>
       </c>
       <c r="E54" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F54" s="15">
         <v>831</v>
@@ -2231,7 +2228,7 @@
         <v>131</v>
       </c>
       <c r="E55" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F55" s="15">
         <v>831</v>
@@ -2251,7 +2248,7 @@
         <v>131</v>
       </c>
       <c r="E56" s="15">
-        <v>83128813</v>
+        <v>28813</v>
       </c>
       <c r="F56" s="15">
         <v>831</v>
@@ -2268,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -4031,7 +4028,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,9 +4070,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>135</v>
-      </c>
+      <c r="F2"/>
       <c r="G2">
         <v>6</v>
       </c>
@@ -4087,9 +4082,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>135</v>
-      </c>
+      <c r="F3"/>
       <c r="G3">
         <v>7</v>
       </c>
@@ -4101,9 +4094,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>135</v>
-      </c>
+      <c r="F4"/>
       <c r="G4">
         <v>8</v>
       </c>
@@ -4115,9 +4106,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
-        <v>135</v>
-      </c>
+      <c r="F5"/>
       <c r="G5">
         <v>9</v>
       </c>
@@ -4129,9 +4118,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
+      <c r="F6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4140,9 +4127,7 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
+      <c r="F7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4151,9 +4136,7 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
-        <v>135</v>
-      </c>
+      <c r="F8"/>
       <c r="G8">
         <v>10</v>
       </c>
@@ -4165,9 +4148,7 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
-        <v>135</v>
-      </c>
+      <c r="F9"/>
       <c r="G9">
         <v>10</v>
       </c>
@@ -4179,9 +4160,7 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
-        <v>135</v>
-      </c>
+      <c r="F10"/>
       <c r="G10">
         <v>10</v>
       </c>
@@ -4193,9 +4172,7 @@
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
-        <v>135</v>
-      </c>
+      <c r="F11"/>
       <c r="G11">
         <v>8</v>
       </c>
@@ -4207,9 +4184,7 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>135</v>
-      </c>
+      <c r="F12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4218,9 +4193,7 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
-        <v>135</v>
-      </c>
+      <c r="F13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4229,9 +4202,7 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
-        <v>135</v>
-      </c>
+      <c r="F14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4240,9 +4211,7 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
-        <v>135</v>
-      </c>
+      <c r="F15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4251,9 +4220,7 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
-        <v>135</v>
-      </c>
+      <c r="F16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4262,9 +4229,7 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
-        <v>135</v>
-      </c>
+      <c r="F17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4273,9 +4238,7 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
-        <v>135</v>
-      </c>
+      <c r="F18"/>
       <c r="G18">
         <v>12</v>
       </c>
@@ -4287,9 +4250,7 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>135</v>
-      </c>
+      <c r="F19"/>
       <c r="G19">
         <v>9</v>
       </c>
@@ -4301,9 +4262,7 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
-        <v>135</v>
-      </c>
+      <c r="F20"/>
       <c r="G20">
         <v>10</v>
       </c>
@@ -4315,9 +4274,7 @@
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
-        <v>135</v>
-      </c>
+      <c r="F21"/>
       <c r="G21">
         <v>12</v>
       </c>
@@ -4329,9 +4286,7 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
-        <v>135</v>
-      </c>
+      <c r="F22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4340,9 +4295,7 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="F23" t="s">
-        <v>135</v>
-      </c>
+      <c r="F23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -4351,9 +4304,7 @@
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="F24" t="s">
-        <v>135</v>
-      </c>
+      <c r="F24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -4362,9 +4313,7 @@
       <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
-        <v>135</v>
-      </c>
+      <c r="F25"/>
       <c r="G25">
         <v>9</v>
       </c>
@@ -4376,9 +4325,7 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>135</v>
-      </c>
+      <c r="F26"/>
       <c r="G26">
         <v>9</v>
       </c>
@@ -4390,9 +4337,7 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
-        <v>135</v>
-      </c>
+      <c r="F27"/>
       <c r="G27">
         <v>7</v>
       </c>
@@ -4404,9 +4349,7 @@
       <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
-        <v>135</v>
-      </c>
+      <c r="F28"/>
       <c r="G28">
         <v>8</v>
       </c>
@@ -4418,9 +4361,7 @@
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="F29" t="s">
-        <v>135</v>
-      </c>
+      <c r="F29"/>
       <c r="G29">
         <v>8</v>
       </c>
@@ -4432,9 +4373,7 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>135</v>
-      </c>
+      <c r="F30"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -4443,9 +4382,7 @@
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="F31" t="s">
-        <v>135</v>
-      </c>
+      <c r="F31"/>
       <c r="G31">
         <v>7</v>
       </c>
@@ -4457,9 +4394,7 @@
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="F32" t="s">
-        <v>135</v>
-      </c>
+      <c r="F32"/>
       <c r="G32">
         <v>6</v>
       </c>
@@ -4471,9 +4406,7 @@
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
-        <v>135</v>
-      </c>
+      <c r="F33"/>
       <c r="G33">
         <v>12</v>
       </c>
@@ -4485,9 +4418,7 @@
       <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="F34" t="s">
-        <v>135</v>
-      </c>
+      <c r="F34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -4496,9 +4427,7 @@
       <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
-        <v>135</v>
-      </c>
+      <c r="F35"/>
       <c r="G35">
         <v>12</v>
       </c>
@@ -4510,9 +4439,7 @@
       <c r="B36" t="s">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
-        <v>135</v>
-      </c>
+      <c r="F36"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -4521,9 +4448,7 @@
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="F37" t="s">
-        <v>135</v>
-      </c>
+      <c r="F37"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -4532,9 +4457,7 @@
       <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="F38" t="s">
-        <v>135</v>
-      </c>
+      <c r="F38"/>
       <c r="G38">
         <v>7</v>
       </c>
@@ -4546,9 +4469,7 @@
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="F39" t="s">
-        <v>135</v>
-      </c>
+      <c r="F39"/>
       <c r="G39">
         <v>8</v>
       </c>
@@ -4560,9 +4481,7 @@
       <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="F40" t="s">
-        <v>135</v>
-      </c>
+      <c r="F40"/>
       <c r="G40">
         <v>8</v>
       </c>
@@ -4574,9 +4493,7 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="F41" t="s">
-        <v>135</v>
-      </c>
+      <c r="F41"/>
       <c r="G41">
         <v>7</v>
       </c>
@@ -4588,9 +4505,7 @@
       <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="F42" t="s">
-        <v>135</v>
-      </c>
+      <c r="F42"/>
       <c r="G42">
         <v>6</v>
       </c>
@@ -4602,9 +4517,7 @@
       <c r="B43" t="s">
         <v>4</v>
       </c>
-      <c r="F43" t="s">
-        <v>135</v>
-      </c>
+      <c r="F43"/>
       <c r="G43">
         <v>8</v>
       </c>
@@ -4616,9 +4529,7 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
-      <c r="F44" t="s">
-        <v>135</v>
-      </c>
+      <c r="F44"/>
       <c r="G44">
         <v>7</v>
       </c>
@@ -4630,9 +4541,7 @@
       <c r="B45" t="s">
         <v>4</v>
       </c>
-      <c r="F45" t="s">
-        <v>135</v>
-      </c>
+      <c r="F45"/>
       <c r="G45">
         <v>6</v>
       </c>
@@ -4644,9 +4553,7 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="F46" t="s">
-        <v>135</v>
-      </c>
+      <c r="F46"/>
       <c r="G46">
         <v>8</v>
       </c>
@@ -4658,9 +4565,7 @@
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="F47" t="s">
-        <v>135</v>
-      </c>
+      <c r="F47"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -4669,9 +4574,7 @@
       <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="F48" t="s">
-        <v>135</v>
-      </c>
+      <c r="F48"/>
       <c r="G48">
         <v>8</v>
       </c>
@@ -4683,9 +4586,7 @@
       <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="F49" t="s">
-        <v>135</v>
-      </c>
+      <c r="F49"/>
       <c r="G49">
         <v>7</v>
       </c>
@@ -4697,9 +4598,7 @@
       <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="F50" t="s">
-        <v>135</v>
-      </c>
+      <c r="F50"/>
       <c r="G50">
         <v>8</v>
       </c>
@@ -4711,9 +4610,7 @@
       <c r="B51" t="s">
         <v>4</v>
       </c>
-      <c r="F51" t="s">
-        <v>135</v>
-      </c>
+      <c r="F51"/>
       <c r="G51">
         <v>9</v>
       </c>
@@ -4725,9 +4622,7 @@
       <c r="B52" t="s">
         <v>4</v>
       </c>
-      <c r="F52" t="s">
-        <v>135</v>
-      </c>
+      <c r="F52"/>
       <c r="G52">
         <v>7</v>
       </c>
@@ -4739,9 +4634,7 @@
       <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="F53" t="s">
-        <v>135</v>
-      </c>
+      <c r="F53"/>
       <c r="G53">
         <v>7</v>
       </c>
@@ -4753,9 +4646,7 @@
       <c r="B54" t="s">
         <v>4</v>
       </c>
-      <c r="F54" t="s">
-        <v>135</v>
-      </c>
+      <c r="F54"/>
       <c r="G54">
         <v>6</v>
       </c>
@@ -4767,9 +4658,7 @@
       <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="F55" t="s">
-        <v>135</v>
-      </c>
+      <c r="F55"/>
       <c r="G55">
         <v>8</v>
       </c>
@@ -4781,9 +4670,7 @@
       <c r="B56" t="s">
         <v>4</v>
       </c>
-      <c r="F56" t="s">
-        <v>135</v>
-      </c>
+      <c r="F56"/>
       <c r="G56">
         <v>7</v>
       </c>
@@ -4814,11 +4701,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4857,7 +4744,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -4874,7 +4761,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -4885,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -4899,7 +4786,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -4927,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -4941,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -4952,7 +4839,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -4963,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -4974,7 +4861,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -4982,7 +4869,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -4990,7 +4880,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -4998,7 +4891,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -5006,13 +4899,16 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
+      <c r="F14" s="10">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -5020,408 +4916,23 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
-      </c>
-      <c r="F16" s="10">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>28</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>32</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>33</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>34</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>35</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>36</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>37</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>39</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>41</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>42</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>44</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>45</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>46</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>47</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>48</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>49</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>50</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>51</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>52</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>53</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>54</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>55</v>
-      </c>
-      <c r="D64" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5432,23 +4943,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+          <x14:formula1>
+            <xm:f>'DANH MUC DICH TE'!$F$3:$F$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+          <x14:formula1>
+            <xm:f>'NONG HO'!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>A18:B1048576 A2:A17</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>'DANH MUC DICH TE'!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
-          <x14:formula1>
-            <xm:f>'NONG HO'!$A$2:$A$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>B36:B1048576 A2:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
-          <x14:formula1>
-            <xm:f>'DANH MUC DICH TE'!$F$3:$F$40</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6285,7 +5796,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K38" s="1">
         <v>36</v>
@@ -6305,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K39" s="1">
         <v>37</v>
@@ -6325,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K40" s="1">
         <v>38</v>
